--- a/indigo/spreadsheetform_guides/project_v014.xlsx
+++ b/indigo/spreadsheetform_guides/project_v014.xlsx
@@ -12157,7 +12157,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12632,16 +12632,16 @@
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C32" type="list">
-      <formula1>"Contract,Report,Award notice,Website"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K5" type="list">
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K4" type="list">
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C32" type="list">
+      <formula1>"Contract,Report,Award Notice,Website,News piece,Press release,Email correspondence,Evaluation report"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/indigo/spreadsheetform_guides/project_v014.xlsx
+++ b/indigo/spreadsheetform_guides/project_v014.xlsx
@@ -8899,10 +8899,6 @@
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C9" type="list">
-      <formula1>"Early-stage design,Late-stage design,Contracted,Implementation,Service delivery complete,Complete"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C66" type="list">
       <formula1>"Employment and training,Child and family welfare,Health,Homelessness,Education,Criminal justice,Agriculture and environment,Poverty reduction"</formula1>
       <formula2>0</formula2>
@@ -8945,6 +8941,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D38:D40" type="list">
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C9" type="list">
+      <formula1>"Contracted,Implementation,Service delivery complete,Complete"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
